--- a/Kurasik/doc/Ogrzewanie/Rozdzielacze.xlsx
+++ b/Kurasik/doc/Ogrzewanie/Rozdzielacze.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -314,10 +312,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:A58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +650,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -666,7 +664,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -678,7 +676,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -690,7 +688,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -702,7 +700,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -716,7 +714,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -728,7 +726,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -740,7 +738,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
@@ -752,7 +750,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
@@ -764,7 +762,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
@@ -776,7 +774,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -788,7 +786,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
@@ -800,7 +798,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -814,7 +812,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,7 +824,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,7 +836,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,7 +848,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -864,7 +862,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,7 +874,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,7 +886,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
@@ -900,7 +898,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -914,7 +912,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,7 +924,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,7 +936,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,7 +948,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -964,7 +962,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -976,7 +974,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,7 +986,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +998,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1014,7 +1012,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1024,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1039,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1051,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1067,7 +1065,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1077,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1089,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1103,7 +1101,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1113,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1125,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,7 +1137,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
@@ -1151,7 +1149,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1165,7 +1163,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1177,7 +1175,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
@@ -1189,7 +1187,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1199,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1211,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,7 +1223,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,7 +1235,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,28 +1261,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Kurasik/doc/Ogrzewanie/Rozdzielacze.xlsx
+++ b/Kurasik/doc/Ogrzewanie/Rozdzielacze.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="114">
   <si>
     <t>Rozdzielacz</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Nr kanału</t>
   </si>
   <si>
-    <t>Pętle</t>
-  </si>
-  <si>
     <t>D (Korytarz)</t>
   </si>
   <si>
@@ -64,18 +61,9 @@
     <t>Garaż</t>
   </si>
   <si>
-    <t>? (Garaż)</t>
-  </si>
-  <si>
-    <t>? (Piętro Garderoba)</t>
-  </si>
-  <si>
     <t>B (Wejście)</t>
   </si>
   <si>
-    <t>? (Wejście Garderoba)</t>
-  </si>
-  <si>
     <t>1d</t>
   </si>
   <si>
@@ -244,9 +232,6 @@
     <t>przedsionek sauny</t>
   </si>
   <si>
-    <t>? (Piętro Strych)</t>
-  </si>
-  <si>
     <t>Strych</t>
   </si>
   <si>
@@ -254,6 +239,123 @@
   </si>
   <si>
     <t>2b</t>
+  </si>
+  <si>
+    <t>Pętle fizyczne</t>
+  </si>
+  <si>
+    <t>Pętle logiczne (ID)</t>
+  </si>
+  <si>
+    <t>I (Piętro Strych)</t>
+  </si>
+  <si>
+    <t>G (Garaż)</t>
+  </si>
+  <si>
+    <t>H (Piętro Garderoba)</t>
+  </si>
+  <si>
+    <t>F (Wejście Garderoba)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
 </sst>
 </file>
@@ -312,10 +414,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,12 +732,13 @@
     <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="26.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,620 +746,752 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
+      <c r="D34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>77</v>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A37" s="5"/>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>38</v>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="A42" s="5"/>
       <c r="B42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>61</v>
+      <c r="D42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="1" t="s">
+      <c r="C50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="D53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="1" t="s">
+      <c r="D56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="1" t="s">
+      <c r="D57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>71</v>
+      <c r="D58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A55:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Kurasik/doc/Ogrzewanie/Rozdzielacze.xlsx
+++ b/Kurasik/doc/Ogrzewanie/Rozdzielacze.xlsx
@@ -166,9 +166,6 @@
     <t>3b/4b/5b/6b</t>
   </si>
   <si>
-    <t>obw_???</t>
-  </si>
-  <si>
     <t>Lokacja</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>42</t>
+  </si>
+  <si>
+    <t>obw_153</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,13 +746,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -906,13 +906,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>10</v>
@@ -941,7 +941,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -956,7 +956,7 @@
         <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>34</v>
@@ -971,7 +971,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
@@ -986,7 +986,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>37</v>
@@ -1003,7 +1003,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
@@ -1018,7 +1018,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>21</v>
@@ -1048,10 +1048,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>38</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>39</v>
@@ -1081,7 +1081,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>41</v>
@@ -1096,10 +1096,10 @@
         <v>42</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>44</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
@@ -1128,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M32" s="4"/>
     </row>
@@ -1141,13 +1141,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1174,10 +1174,10 @@
         <v>48</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,10 +1189,10 @@
         <v>9</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,13 +1216,13 @@
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3</v>
@@ -1248,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>45</v>
@@ -1263,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>46</v>
@@ -1278,7 +1278,7 @@
         <v>47</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
@@ -1293,7 +1293,7 @@
         <v>48</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>3</v>
@@ -1310,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1325,10 +1325,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,11 +1337,11 @@
         <v>5</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,10 +1353,10 @@
         <v>5</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1368,10 +1368,10 @@
         <v>6</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1383,10 +1383,10 @@
         <v>48</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,10 +1398,10 @@
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,15 +1413,15 @@
         <v>10</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3</v>
@@ -1430,10 +1430,10 @@
         <v>3</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,10 +1445,10 @@
         <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1460,10 +1460,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1475,14 +1475,15 @@
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A46:A53"/>
     <mergeCell ref="A12:A15"/>
@@ -1491,7 +1492,6 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A55:A58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
